--- a/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
+++ b/REGULAR/CTO/ATIENZA, JULIE ANN ANCIANO.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1266,7 +1266,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K196" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1625,11 +1625,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K195"/>
+  <dimension ref="A2:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A81" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K93" sqref="K93"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1798,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>54.173000000000002</v>
+        <v>53.423000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1808,7 +1808,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>76.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="34">
-        <f t="shared" ref="A86:A150" si="1">EDATE(A85,1)</f>
+        <f t="shared" ref="A86:A151" si="1">EDATE(A85,1)</f>
         <v>45017</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -3613,28 +3613,40 @@
         <f>EDATE(A91,1)</f>
         <v>45200</v>
       </c>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
+      <c r="B94" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="35"/>
       <c r="E94" s="9"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="35"/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="35">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="K94" s="39">
+        <v>45204</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="34">
         <f t="shared" si="1"/>
         <v>45231</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="21" t="s">
+        <v>60</v>
+      </c>
       <c r="C95" s="14"/>
-      <c r="D95" s="35"/>
+      <c r="D95" s="35">
+        <v>1</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="21"/>
       <c r="G95" s="14" t="str">
@@ -3644,50 +3656,55 @@
       <c r="H95" s="35"/>
       <c r="I95" s="9"/>
       <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="K95" s="39">
+        <v>45233</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
-        <f t="shared" si="1"/>
-        <v>45261</v>
-      </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="35">
+        <v>1</v>
+      </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="36" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="37"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="35"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="16"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="39">
+        <v>45247</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="34">
-        <f t="shared" si="1"/>
-        <v>45292</v>
-      </c>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="35"/>
+        <f>EDATE(A95,1)</f>
+        <v>45261</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="35"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="36" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="37"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="16"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="34">
         <f t="shared" si="1"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3706,7 +3723,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="34">
         <f t="shared" si="1"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3725,7 +3742,7 @@
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="34">
         <f t="shared" si="1"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3744,7 +3761,7 @@
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="34">
         <f t="shared" si="1"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3763,7 +3780,7 @@
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="34">
         <f t="shared" si="1"/>
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3782,7 +3799,7 @@
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="34">
         <f t="shared" si="1"/>
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3801,7 +3818,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
         <f t="shared" si="1"/>
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3820,7 +3837,7 @@
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
         <f t="shared" si="1"/>
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3839,7 +3856,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
         <f t="shared" si="1"/>
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3858,7 +3875,7 @@
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
         <f t="shared" si="1"/>
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3877,7 +3894,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
         <f t="shared" si="1"/>
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3896,7 +3913,7 @@
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
         <f t="shared" si="1"/>
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3915,7 +3932,7 @@
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
         <f t="shared" si="1"/>
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3934,7 +3951,7 @@
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
         <f t="shared" si="1"/>
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3953,7 +3970,7 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
         <f t="shared" si="1"/>
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3972,7 +3989,7 @@
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
         <f t="shared" si="1"/>
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3991,7 +4008,7 @@
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
         <f t="shared" si="1"/>
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -4010,7 +4027,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
         <f t="shared" si="1"/>
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -4029,7 +4046,7 @@
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
         <f t="shared" si="1"/>
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -4048,7 +4065,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
         <f t="shared" si="1"/>
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -4067,7 +4084,7 @@
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
         <f t="shared" si="1"/>
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -4086,7 +4103,7 @@
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
         <f t="shared" si="1"/>
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -4105,7 +4122,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="34">
         <f t="shared" si="1"/>
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -4124,7 +4141,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="34">
         <f t="shared" si="1"/>
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -4143,7 +4160,7 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="34">
         <f t="shared" si="1"/>
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -4162,7 +4179,7 @@
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="34">
         <f t="shared" si="1"/>
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -4181,7 +4198,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="34">
         <f t="shared" si="1"/>
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -4200,7 +4217,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="34">
         <f t="shared" si="1"/>
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -4219,7 +4236,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="34">
         <f t="shared" si="1"/>
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -4238,7 +4255,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="34">
         <f t="shared" si="1"/>
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -4257,7 +4274,7 @@
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="34">
         <f t="shared" si="1"/>
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -4276,7 +4293,7 @@
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="34">
         <f t="shared" si="1"/>
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -4295,7 +4312,7 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
         <f t="shared" si="1"/>
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -4314,7 +4331,7 @@
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
         <f t="shared" si="1"/>
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -4333,7 +4350,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="34">
         <f t="shared" si="1"/>
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -4352,7 +4369,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="34">
         <f t="shared" si="1"/>
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -4371,7 +4388,7 @@
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
         <f t="shared" si="1"/>
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -4390,7 +4407,7 @@
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
         <f t="shared" si="1"/>
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -4409,7 +4426,7 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="34">
         <f t="shared" si="1"/>
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -4428,7 +4445,7 @@
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="34">
         <f t="shared" si="1"/>
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -4447,7 +4464,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="34">
         <f t="shared" si="1"/>
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -4466,7 +4483,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
         <f t="shared" si="1"/>
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -4485,7 +4502,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
         <f t="shared" si="1"/>
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B140" s="21"/>
       <c r="C140" s="14"/>
@@ -4504,7 +4521,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
         <f t="shared" si="1"/>
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B141" s="21"/>
       <c r="C141" s="14"/>
@@ -4523,7 +4540,7 @@
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="34">
         <f t="shared" si="1"/>
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B142" s="21"/>
       <c r="C142" s="14"/>
@@ -4542,7 +4559,7 @@
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="34">
         <f t="shared" si="1"/>
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B143" s="21"/>
       <c r="C143" s="14"/>
@@ -4561,7 +4578,7 @@
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="34">
         <f t="shared" si="1"/>
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B144" s="21"/>
       <c r="C144" s="14"/>
@@ -4580,7 +4597,7 @@
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="34">
         <f t="shared" si="1"/>
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B145" s="21"/>
       <c r="C145" s="14"/>
@@ -4599,7 +4616,7 @@
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="34">
         <f t="shared" si="1"/>
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B146" s="21"/>
       <c r="C146" s="14"/>
@@ -4618,7 +4635,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="34">
         <f t="shared" si="1"/>
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B147" s="21"/>
       <c r="C147" s="14"/>
@@ -4637,7 +4654,7 @@
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="34">
         <f t="shared" si="1"/>
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B148" s="21"/>
       <c r="C148" s="14"/>
@@ -4656,7 +4673,7 @@
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="34">
         <f t="shared" si="1"/>
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B149" s="21"/>
       <c r="C149" s="14"/>
@@ -4675,7 +4692,7 @@
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="34">
         <f t="shared" si="1"/>
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B150" s="21"/>
       <c r="C150" s="14"/>
@@ -4693,8 +4710,8 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="34">
-        <f t="shared" ref="A151:A195" si="2">EDATE(A150,1)</f>
-        <v>46935</v>
+        <f t="shared" si="1"/>
+        <v>46905</v>
       </c>
       <c r="B151" s="21"/>
       <c r="C151" s="14"/>
@@ -4712,8 +4729,8 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="34">
-        <f t="shared" si="2"/>
-        <v>46966</v>
+        <f t="shared" ref="A152:A196" si="2">EDATE(A151,1)</f>
+        <v>46935</v>
       </c>
       <c r="B152" s="21"/>
       <c r="C152" s="14"/>
@@ -4732,7 +4749,7 @@
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="34">
         <f t="shared" si="2"/>
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B153" s="21"/>
       <c r="C153" s="14"/>
@@ -4751,7 +4768,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="34">
         <f t="shared" si="2"/>
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="14"/>
@@ -4770,7 +4787,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="34">
         <f t="shared" si="2"/>
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="14"/>
@@ -4789,7 +4806,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="34">
         <f t="shared" si="2"/>
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B156" s="21"/>
       <c r="C156" s="14"/>
@@ -4808,7 +4825,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="34">
         <f t="shared" si="2"/>
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B157" s="21"/>
       <c r="C157" s="14"/>
@@ -4827,7 +4844,7 @@
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
         <f t="shared" si="2"/>
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B158" s="21"/>
       <c r="C158" s="14"/>
@@ -4846,7 +4863,7 @@
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
         <f t="shared" si="2"/>
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B159" s="21"/>
       <c r="C159" s="14"/>
@@ -4865,7 +4882,7 @@
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
         <f t="shared" si="2"/>
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B160" s="21"/>
       <c r="C160" s="14"/>
@@ -4884,7 +4901,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="34">
         <f t="shared" si="2"/>
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B161" s="21"/>
       <c r="C161" s="14"/>
@@ -4903,7 +4920,7 @@
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="34">
         <f t="shared" si="2"/>
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B162" s="21"/>
       <c r="C162" s="14"/>
@@ -4922,7 +4939,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="34">
         <f t="shared" si="2"/>
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B163" s="21"/>
       <c r="C163" s="14"/>
@@ -4941,7 +4958,7 @@
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="34">
         <f t="shared" si="2"/>
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B164" s="21"/>
       <c r="C164" s="14"/>
@@ -4960,7 +4977,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="34">
         <f t="shared" si="2"/>
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B165" s="21"/>
       <c r="C165" s="14"/>
@@ -4979,7 +4996,7 @@
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="34">
         <f t="shared" si="2"/>
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B166" s="21"/>
       <c r="C166" s="14"/>
@@ -4998,7 +5015,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="34">
         <f t="shared" si="2"/>
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B167" s="21"/>
       <c r="C167" s="14"/>
@@ -5017,7 +5034,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="34">
         <f t="shared" si="2"/>
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B168" s="21"/>
       <c r="C168" s="14"/>
@@ -5036,7 +5053,7 @@
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="34">
         <f t="shared" si="2"/>
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B169" s="21"/>
       <c r="C169" s="14"/>
@@ -5055,7 +5072,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="34">
         <f t="shared" si="2"/>
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B170" s="21"/>
       <c r="C170" s="14"/>
@@ -5074,7 +5091,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="34">
         <f t="shared" si="2"/>
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B171" s="21"/>
       <c r="C171" s="14"/>
@@ -5093,7 +5110,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="34">
         <f t="shared" si="2"/>
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B172" s="21"/>
       <c r="C172" s="14"/>
@@ -5112,7 +5129,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="34">
         <f t="shared" si="2"/>
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B173" s="21"/>
       <c r="C173" s="14"/>
@@ -5131,7 +5148,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="34">
         <f t="shared" si="2"/>
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B174" s="21"/>
       <c r="C174" s="14"/>
@@ -5150,7 +5167,7 @@
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="34">
         <f t="shared" si="2"/>
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B175" s="21"/>
       <c r="C175" s="14"/>
@@ -5169,7 +5186,7 @@
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="34">
         <f t="shared" si="2"/>
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B176" s="21"/>
       <c r="C176" s="14"/>
@@ -5188,7 +5205,7 @@
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="34">
         <f t="shared" si="2"/>
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B177" s="21"/>
       <c r="C177" s="14"/>
@@ -5207,7 +5224,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="34">
         <f t="shared" si="2"/>
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="14"/>
@@ -5226,7 +5243,7 @@
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="34">
         <f t="shared" si="2"/>
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B179" s="21"/>
       <c r="C179" s="14"/>
@@ -5245,7 +5262,7 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="34">
         <f t="shared" si="2"/>
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B180" s="21"/>
       <c r="C180" s="14"/>
@@ -5264,7 +5281,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="34">
         <f t="shared" si="2"/>
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B181" s="21"/>
       <c r="C181" s="14"/>
@@ -5283,7 +5300,7 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="34">
         <f t="shared" si="2"/>
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B182" s="21"/>
       <c r="C182" s="14"/>
@@ -5302,7 +5319,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="34">
         <f t="shared" si="2"/>
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B183" s="21"/>
       <c r="C183" s="14"/>
@@ -5321,7 +5338,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="34">
         <f t="shared" si="2"/>
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B184" s="21"/>
       <c r="C184" s="14"/>
@@ -5340,7 +5357,7 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="34">
         <f t="shared" si="2"/>
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B185" s="21"/>
       <c r="C185" s="14"/>
@@ -5359,7 +5376,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="34">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="14"/>
@@ -5378,7 +5395,7 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="34">
         <f t="shared" si="2"/>
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="14"/>
@@ -5397,7 +5414,7 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="34">
         <f t="shared" si="2"/>
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="14"/>
@@ -5416,7 +5433,7 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="34">
         <f t="shared" si="2"/>
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="14"/>
@@ -5435,7 +5452,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="34">
         <f t="shared" si="2"/>
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B190" s="21"/>
       <c r="C190" s="14"/>
@@ -5454,7 +5471,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="34">
         <f t="shared" si="2"/>
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B191" s="21"/>
       <c r="C191" s="14"/>
@@ -5473,7 +5490,7 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="34">
         <f t="shared" si="2"/>
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B192" s="21"/>
       <c r="C192" s="14"/>
@@ -5492,7 +5509,7 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="34">
         <f t="shared" si="2"/>
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B193" s="21"/>
       <c r="C193" s="14"/>
@@ -5511,7 +5528,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="34">
         <f t="shared" si="2"/>
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B194" s="21"/>
       <c r="C194" s="14"/>
@@ -5530,7 +5547,7 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="34">
         <f t="shared" si="2"/>
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B195" s="21"/>
       <c r="C195" s="14"/>
@@ -5545,6 +5562,25 @@
       <c r="I195" s="9"/>
       <c r="J195" s="12"/>
       <c r="K195" s="21"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="34">
+        <f t="shared" si="2"/>
+        <v>48274</v>
+      </c>
+      <c r="B196" s="21"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="35"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9017,17 +9053,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
